--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1018">
   <si>
     <t>anchor score</t>
   </si>
@@ -469,448 +469,448 @@
     <t>police</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>ap</t>
   </si>
   <si>
     <t>best</t>
@@ -3494,7 +3494,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02844271297328594</v>
+        <v>0.02887052412390742</v>
       </c>
       <c r="C3">
         <v>147</v>
@@ -3515,28 +3515,28 @@
         <v>145</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="K3">
-        <v>0.004767969174059119</v>
+        <v>0.007837093399628051</v>
       </c>
       <c r="L3">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="M3">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>212</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3544,7 +3544,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0199057524814257</v>
+        <v>0.02020515791722443</v>
       </c>
       <c r="C4">
         <v>72</v>
@@ -3565,16 +3565,16 @@
         <v>444</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K4">
-        <v>0.004229190649838594</v>
+        <v>0.007278957016012955</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3594,7 +3594,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0104912527301423</v>
+        <v>0.01064905325030218</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -3615,28 +3615,28 @@
         <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="K5">
-        <v>0.004024759621390614</v>
+        <v>0.004767969174059119</v>
       </c>
       <c r="L5">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="M5">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3644,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01022560827801125</v>
+        <v>0.01037941319976148</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -3665,28 +3665,28 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="K6">
-        <v>0.004007428647455802</v>
+        <v>0.004229190649838594</v>
       </c>
       <c r="L6">
-        <v>357</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="N6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2737</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3694,7 +3694,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00938366170949137</v>
+        <v>0.009524802785476304</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -3715,16 +3715,16 @@
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K7">
-        <v>0.003674086055285986</v>
+        <v>0.004024759621390614</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3744,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00812648942093884</v>
+        <v>0.008248721178259262</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -3765,28 +3765,28 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="K8">
-        <v>0.003352354817566711</v>
+        <v>0.004007428647455802</v>
       </c>
       <c r="L8">
-        <v>104</v>
+        <v>357</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>370</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3794,7 +3794,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007037746282118527</v>
+        <v>0.007143602089107228</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -3815,16 +3815,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K9">
-        <v>0.003337154383881381</v>
+        <v>0.003674086055285986</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>197</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3844,7 +3844,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0066352508271419</v>
+        <v>0.006735052639074812</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3865,16 +3865,16 @@
         <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K10">
-        <v>0.003108781965096208</v>
+        <v>0.003352354817566711</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N10">
         <v>0.99</v>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3894,7 +3894,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006206708817618348</v>
+        <v>0.0063000648643264</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -3915,28 +3915,28 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c r="K11">
-        <v>0.003066803731400283</v>
+        <v>0.003337154383881381</v>
       </c>
       <c r="L11">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="N11">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2979</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3944,7 +3944,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006206708817618348</v>
+        <v>0.0063000648643264</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3965,16 +3965,16 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K12">
-        <v>0.003033732153404688</v>
+        <v>0.003108781965096208</v>
       </c>
       <c r="L12">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M12">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>0.99</v>
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3994,7 +3994,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006206708817618348</v>
+        <v>0.0063000648643264</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -4015,28 +4015,28 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>303</v>
+        <v>84</v>
       </c>
       <c r="K13">
-        <v>0.002962142876714509</v>
+        <v>0.003066803731400283</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4044,7 +4044,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006206708817618348</v>
+        <v>0.0063000648643264</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -4065,28 +4065,28 @@
         <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="K14">
-        <v>0.002845934820931105</v>
+        <v>0.003033732153404688</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>243</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4094,7 +4094,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4115,16 +4115,16 @@
         <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K15">
-        <v>0.002786013692796033</v>
+        <v>0.002962142876714509</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4144,7 +4144,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4165,16 +4165,16 @@
         <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K16">
-        <v>0.002786013692796033</v>
+        <v>0.002845934820931105</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>41</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4215,16 +4215,16 @@
         <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K17">
-        <v>0.002662128261253511</v>
+        <v>0.002786013692796033</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>52</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4244,7 +4244,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4265,16 +4265,16 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K18">
-        <v>0.002662128261253511</v>
+        <v>0.002786013692796033</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4294,7 +4294,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4315,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K19">
         <v>0.002662128261253511</v>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4344,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4365,28 +4365,28 @@
         <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="K20">
-        <v>0.002645127123521222</v>
+        <v>0.002662128261253511</v>
       </c>
       <c r="L20">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4394,7 +4394,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4415,16 +4415,16 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K21">
-        <v>0.002597971164355653</v>
+        <v>0.002662128261253511</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4444,7 +4444,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4465,28 +4465,28 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c r="K22">
-        <v>0.002597971164355653</v>
+        <v>0.002645127123521222</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>288</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4494,7 +4494,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4515,16 +4515,16 @@
         <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K23">
-        <v>0.002532189065271844</v>
+        <v>0.002597971164355653</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4544,7 +4544,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -4565,28 +4565,28 @@
         <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>153</v>
+        <v>311</v>
       </c>
       <c r="K24">
-        <v>0.002531001500989959</v>
+        <v>0.002597971164355653</v>
       </c>
       <c r="L24">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>150</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4594,7 +4594,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -4615,16 +4615,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K25">
-        <v>0.002464651852441054</v>
+        <v>0.002532189065271844</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4644,7 +4644,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005746295776786593</v>
+        <v>0.005832726681264212</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="K26">
-        <v>0.002395211064854191</v>
+        <v>0.002531001500989959</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>264</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4694,7 +4694,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005245626365071148</v>
+        <v>0.005324526625151091</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4715,16 +4715,16 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K27">
-        <v>0.002395211064854191</v>
+        <v>0.002464651852441054</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4744,7 +4744,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005245626365071148</v>
+        <v>0.005324526625151091</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4765,28 +4765,28 @@
         <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="K28">
-        <v>0.002365812381389683</v>
+        <v>0.002395211064854191</v>
       </c>
       <c r="L28">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>419</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4794,7 +4794,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005245626365071148</v>
+        <v>0.005324526625151091</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4815,28 +4815,28 @@
         <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="K29">
-        <v>0.002363079450767062</v>
+        <v>0.002395211064854191</v>
       </c>
       <c r="L29">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4844,7 +4844,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005245626365071148</v>
+        <v>0.005324526625151091</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4865,28 +4865,28 @@
         <v>144</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="K30">
-        <v>0.002323696050833407</v>
+        <v>0.002365812381389683</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>149</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4894,7 +4894,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005245626365071148</v>
+        <v>0.005324526625151091</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4915,28 +4915,28 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>317</v>
+        <v>156</v>
       </c>
       <c r="K31">
-        <v>0.002323696050833407</v>
+        <v>0.002363079450767062</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4944,7 +4944,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005245626365071148</v>
+        <v>0.005324526625151091</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4965,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K32">
         <v>0.002323696050833407</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4994,7 +4994,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005245626365071148</v>
+        <v>0.005324526625151091</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -5015,7 +5015,7 @@
         <v>17</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K33">
         <v>0.002323696050833407</v>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5044,7 +5044,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004691830854745685</v>
+        <v>0.004762401392738152</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5065,28 +5065,28 @@
         <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>155</v>
+        <v>318</v>
       </c>
       <c r="K34">
-        <v>0.002320356799672861</v>
+        <v>0.002323696050833407</v>
       </c>
       <c r="L34">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>782</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5094,7 +5094,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004691830854745685</v>
+        <v>0.004762401392738152</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5115,16 +5115,16 @@
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K35">
-        <v>0.002249909026631433</v>
+        <v>0.002323696050833407</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5144,7 +5144,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004691830854745685</v>
+        <v>0.004762401392738152</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5165,28 +5165,28 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>321</v>
+        <v>153</v>
       </c>
       <c r="K36">
-        <v>0.002249909026631433</v>
+        <v>0.002320356799672861</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>61</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5194,7 +5194,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004691830854745685</v>
+        <v>0.004762401392738152</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5215,28 +5215,28 @@
         <v>34</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>151</v>
+        <v>320</v>
       </c>
       <c r="K37">
-        <v>0.002221351896188502</v>
+        <v>0.002249909026631433</v>
       </c>
       <c r="L37">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>147</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5244,7 +5244,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004691830854745685</v>
+        <v>0.004762401392738152</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5265,16 +5265,16 @@
         <v>36</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K38">
-        <v>0.002173618623304564</v>
+        <v>0.002249909026631433</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5294,7 +5294,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004691830854745685</v>
+        <v>0.004762401392738152</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5315,28 +5315,28 @@
         <v>73</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="K39">
-        <v>0.002124973898413514</v>
+        <v>0.002173618623304564</v>
       </c>
       <c r="L39">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5344,7 +5344,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004691830854745685</v>
+        <v>0.004762401392738152</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5394,7 +5394,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004691830854745685</v>
+        <v>0.004762401392738152</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5444,7 +5444,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5494,7 +5494,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5544,7 +5544,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5594,7 +5594,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5644,7 +5644,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5694,7 +5694,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5744,7 +5744,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5794,7 +5794,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5844,7 +5844,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5894,7 +5894,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5944,7 +5944,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.00406324471046942</v>
+        <v>0.004124360589129631</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -5994,7 +5994,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -6044,7 +6044,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K54">
         <v>0.001937834547635521</v>
@@ -6094,7 +6094,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -6144,7 +6144,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -6194,7 +6194,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6265,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K58">
         <v>0.001919298712829247</v>
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6315,7 +6315,7 @@
         <v>11</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K59">
         <v>0.001897474712053281</v>
@@ -6344,7 +6344,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6394,7 +6394,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6444,7 +6444,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6494,7 +6494,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6544,7 +6544,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6594,7 +6594,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6644,7 +6644,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6694,7 +6694,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6744,7 +6744,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6794,7 +6794,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6844,7 +6844,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6865,7 +6865,7 @@
         <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K70">
         <v>0.001784860927045391</v>
@@ -6894,7 +6894,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6915,7 +6915,7 @@
         <v>6</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K71">
         <v>0.001784860927045391</v>
@@ -6944,7 +6944,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6994,7 +6994,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7044,7 +7044,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7094,7 +7094,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7144,7 +7144,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.00331762541357095</v>
+        <v>0.003367526319537406</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7194,7 +7194,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003088135794382935</v>
+        <v>0.003134584912254046</v>
       </c>
       <c r="C77">
         <v>13</v>
@@ -7244,7 +7244,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002446843212318443</v>
+        <v>0.002483646551403413</v>
       </c>
       <c r="C78">
         <v>20</v>
@@ -7294,7 +7294,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002394512522231209</v>
+        <v>0.002430528747486353</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -7315,7 +7315,7 @@
         <v>2979</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K79">
         <v>0.001628525631761286</v>
@@ -7344,7 +7344,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7365,7 +7365,7 @@
         <v>15</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K80">
         <v>0.001628525631761286</v>
@@ -7394,7 +7394,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7415,7 +7415,7 @@
         <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K81">
         <v>0.001573912654911036</v>
@@ -7444,7 +7444,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7465,7 +7465,7 @@
         <v>39</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K82">
         <v>0.001573912654911036</v>
@@ -7494,7 +7494,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7544,7 +7544,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7594,7 +7594,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7644,7 +7644,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7694,7 +7694,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7744,7 +7744,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7794,7 +7794,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7844,7 +7844,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7894,7 +7894,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7915,7 +7915,7 @@
         <v>16</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K91">
         <v>0.001458180392552745</v>
@@ -7944,7 +7944,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         <v>10</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K92">
         <v>0.001457728932745104</v>
@@ -7994,7 +7994,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8044,7 +8044,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8094,7 +8094,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8144,7 +8144,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8194,7 +8194,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8244,7 +8244,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8344,7 +8344,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8394,7 +8394,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8444,7 +8444,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8494,7 +8494,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8544,7 +8544,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8594,7 +8594,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8694,7 +8694,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8744,7 +8744,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8794,7 +8794,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8844,7 +8844,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8894,7 +8894,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8944,7 +8944,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9015,7 +9015,7 @@
         <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K113">
         <v>0.001357149134964173</v>
@@ -9044,7 +9044,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9065,7 +9065,7 @@
         <v>14</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K114">
         <v>0.001352434888474427</v>
@@ -9094,7 +9094,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9144,7 +9144,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9194,7 +9194,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9244,7 +9244,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9294,7 +9294,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9394,7 +9394,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9444,7 +9444,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9494,7 +9494,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9544,7 +9544,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9594,7 +9594,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9644,7 +9644,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9694,7 +9694,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9744,7 +9744,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9794,7 +9794,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9844,7 +9844,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9894,7 +9894,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9944,7 +9944,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9994,7 +9994,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10044,7 +10044,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10094,7 +10094,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10144,7 +10144,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10194,7 +10194,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10244,7 +10244,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10294,7 +10294,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10344,7 +10344,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10394,7 +10394,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10444,7 +10444,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10494,7 +10494,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10544,7 +10544,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10594,7 +10594,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002345915427372842</v>
+        <v>0.002381200696369076</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10644,25 +10644,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002205317045298189</v>
+        <v>0.001960604790092955</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D146">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="E146">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F146">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>415</v>
@@ -10694,28 +10694,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.00205455632177235</v>
+        <v>0.001922258715539589</v>
       </c>
       <c r="C147">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D147">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E147">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F147">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>73</v>
+        <v>752</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K147">
         <v>0.001280326358087457</v>
@@ -10744,13 +10744,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001931552023764094</v>
+        <v>0.00177383213753114</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D148">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="E148">
         <v>0.97</v>
@@ -10762,10 +10762,10 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>150</v>
+        <v>782</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K148">
         <v>0.00120684151396042</v>
@@ -10794,25 +10794,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001893774171602745</v>
+        <v>0.001736164683342389</v>
       </c>
       <c r="C149">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E149">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F149">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>752</v>
+        <v>40</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>416</v>
@@ -10844,25 +10844,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001747547018337957</v>
+        <v>0.001705379356326764</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E150">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>782</v>
+        <v>309</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>417</v>
@@ -10894,13 +10894,13 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001710437730563101</v>
+        <v>0.00165309194962496</v>
       </c>
       <c r="C151">
         <v>3</v>
       </c>
       <c r="D151">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E151">
         <v>0.97</v>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>418</v>
@@ -10944,25 +10944,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001680108588759641</v>
+        <v>0.001551436725629613</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D152">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>309</v>
+        <v>772</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>419</v>
@@ -10994,25 +10994,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.00162859599083956</v>
+        <v>0.001498944836955337</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="E153">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F153">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>420</v>
@@ -11044,13 +11044,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001528447121150684</v>
+        <v>0.001359242172952986</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E154">
         <v>0.9399999999999999</v>
@@ -11062,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>772</v>
+        <v>579</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>421</v>
@@ -11094,25 +11094,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001476733071326705</v>
+        <v>0.001352333538907314</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="E155">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F155">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>212</v>
+        <v>345</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>422</v>
@@ -11144,25 +11144,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001339100558776237</v>
+        <v>0.001347441693109702</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E156">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F156">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>579</v>
+        <v>23</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>423</v>
@@ -11194,25 +11194,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001332294298718222</v>
+        <v>0.0013438719708259</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D157">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E157">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F157">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>345</v>
+        <v>1084</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>424</v>
@@ -11244,13 +11244,13 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001327474941600426</v>
+        <v>0.001314325727993202</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E158">
         <v>0.99</v>
@@ -11262,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>425</v>
@@ -11294,25 +11294,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001323958116416485</v>
+        <v>0.001305089992062932</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E159">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>1084</v>
+        <v>36</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>426</v>
@@ -11344,13 +11344,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001294849697715021</v>
+        <v>0.001303566558681315</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E160">
         <v>0.99</v>
@@ -11362,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>427</v>
@@ -11394,25 +11394,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001285750819390736</v>
+        <v>0.001303544248543158</v>
       </c>
       <c r="C161">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>428</v>
@@ -11444,25 +11444,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001284249960652555</v>
+        <v>0.001303544248543158</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E162">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F162">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>429</v>
@@ -11494,25 +11494,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001284227981111994</v>
+        <v>0.001230243141897858</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
       <c r="D163">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E163">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F163">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>430</v>
@@ -11544,25 +11544,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001284227981111994</v>
+        <v>0.001230243141897858</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E164">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>431</v>
@@ -11594,25 +11594,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001212013069876281</v>
+        <v>0.001193671994903489</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>510</v>
+        <v>419</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>432</v>
@@ -11644,25 +11644,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001212013069876281</v>
+        <v>0.001030022295848196</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>433</v>
@@ -11694,25 +11694,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001175983843922488</v>
+        <v>0.001030022295848196</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E167">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F167">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>419</v>
+        <v>3</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>434</v>
@@ -11744,25 +11744,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001014759149891393</v>
+        <v>0.001014927758895945</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E168">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F168">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>435</v>
@@ -11794,25 +11794,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001014759149891393</v>
+        <v>0.0009919616615080939</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D169">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E169">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F169">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>304</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>436</v>
@@ -11844,25 +11844,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0009998882878261633</v>
+        <v>0.0009826233148112898</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E170">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F170">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>437</v>
@@ -11894,25 +11894,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0009772625082138608</v>
+        <v>0.0009507220781554626</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E171">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F171">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>438</v>
@@ -11944,25 +11944,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0009680625396368342</v>
+        <v>0.0009364144591907156</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E172">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F172">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>439</v>
@@ -11994,13 +11994,13 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0009366340240407773</v>
+        <v>0.0009277316426368731</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E173">
         <v>0.97</v>
@@ -12012,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>440</v>
@@ -12044,25 +12044,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0009225384192017766</v>
+        <v>0.0009031633087531574</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E174">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F174">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>441</v>
@@ -12094,25 +12094,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0009139842669466696</v>
+        <v>0.0008841634223056171</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E175">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F175">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>442</v>
@@ -12144,25 +12144,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0008897799932075683</v>
+        <v>0.0008628860162621485</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E176">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F176">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>443</v>
@@ -12194,25 +12194,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0008710616521607253</v>
+        <v>0.0008484185810324289</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E177">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F177">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>444</v>
@@ -12244,25 +12244,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0008500995404126643</v>
+        <v>0.0008254113852819873</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
         <v>28</v>
       </c>
       <c r="E178">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F178">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>445</v>
@@ -12294,25 +12294,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.000835846487508863</v>
+        <v>0.0008046865649277581</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
         <v>27</v>
       </c>
       <c r="E179">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F179">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>446</v>
@@ -12344,25 +12344,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.000813180218540503</v>
+        <v>0.000713800897343887</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
       <c r="D180">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E180">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F180">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>447</v>
@@ -12394,25 +12394,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.000792762504119097</v>
+        <v>0.0007071585973731036</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E181">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F181">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>448</v>
@@ -12444,25 +12444,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0007032236046734552</v>
+        <v>0.0007071585973731036</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E182">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F182">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>449</v>
@@ -12494,25 +12494,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0006966797320807504</v>
+        <v>0.00068879087573785</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E183">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F183">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>450</v>
@@ -12544,25 +12544,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0006966797320807504</v>
+        <v>0.0006852820937453129</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E184">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F184">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>451</v>
@@ -12594,25 +12594,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0006785841882588731</v>
+        <v>0.0006852820937453129</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E185">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>452</v>
@@ -12644,25 +12644,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0006751274003366571</v>
+        <v>0.000662726735845274</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E186">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F186">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>342</v>
+        <v>164</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>453</v>
@@ -12694,13 +12694,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0006751274003366571</v>
+        <v>0.0006621450140948885</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E187">
         <v>0.9399999999999999</v>
@@ -12712,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>454</v>
@@ -12744,25 +12744,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006529062737645457</v>
+        <v>0.0006376080337592075</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E188">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F188">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>455</v>
@@ -12794,25 +12794,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.000652333172122694</v>
+        <v>0.0006355258829563328</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E189">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F189">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>456</v>
@@ -12844,25 +12844,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.000628159787326364</v>
+        <v>0.0006115082962900885</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E190">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F190">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>457</v>
@@ -12894,25 +12894,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0006261084903911548</v>
+        <v>0.0006115082962900885</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E191">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F191">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>458</v>
@@ -12944,25 +12944,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0006024468027499068</v>
+        <v>0.0006070965704642594</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E192">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F192">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>459</v>
@@ -12994,13 +12994,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0006024468027499068</v>
+        <v>0.0005836539878014752</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E193">
         <v>0.93</v>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>460</v>
@@ -13044,25 +13044,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0005981004510576985</v>
+        <v>0.0005836539878014752</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E194">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F194">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>461</v>
@@ -13094,7 +13094,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0005750052468567482</v>
+        <v>0.0005836539878014752</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>462</v>
@@ -13144,25 +13144,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0005750052468567482</v>
+        <v>0.0005538173353062657</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E196">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F196">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>463</v>
@@ -13194,28 +13194,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0005750052468567482</v>
+        <v>0.0005538173353062657</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F197">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K197">
         <v>0.001147983016801383</v>
@@ -13244,13 +13244,13 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005456107218608486</v>
+        <v>0.0005217255030102129</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E198">
         <v>0.92</v>
@@ -13262,10 +13262,10 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K198">
         <v>0.001127806966188225</v>
@@ -13294,28 +13294,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005456107218608486</v>
+        <v>0.0005109401775834843</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E199">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="F199">
-        <v>0.07999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>66</v>
+        <v>525</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K199">
         <v>0.001093852190223852</v>
@@ -13344,28 +13344,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0005139944349217559</v>
+        <v>0.0004870486990536542</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F200">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K200">
         <v>0.001064987039921237</v>
@@ -13394,28 +13394,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0005033689293327564</v>
+        <v>0.0004870486990536542</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="F201">
-        <v>0.15</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>525</v>
+        <v>453</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K201">
         <v>0.001055407492576978</v>
@@ -13444,25 +13444,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0004798314811238178</v>
+        <v>0.0004788754631561607</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E202">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F202">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>464</v>
@@ -13494,25 +13494,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004798314811238178</v>
+        <v>0.0004700371127580474</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D203">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E203">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="F203">
-        <v>0.08999999999999997</v>
+        <v>0.22</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>453</v>
+        <v>928</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>465</v>
@@ -13544,25 +13544,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004717793584225587</v>
+        <v>0.000449384661457991</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E204">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F204">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>466</v>
@@ -13594,25 +13594,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0004630719770652978</v>
+        <v>0.0004425287105609207</v>
       </c>
       <c r="C205">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E205">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="F205">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>928</v>
+        <v>13</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>467</v>
@@ -13644,25 +13644,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0004427255593140578</v>
+        <v>0.0004082387434903798</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E206">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F206">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>468</v>
@@ -13694,25 +13694,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0004359712017316531</v>
+        <v>0.0004082387434903798</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>469</v>
@@ -13744,7 +13744,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0004021893525672596</v>
+        <v>0.0004082387434903798</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13762,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>470</v>
@@ -13794,25 +13794,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0004021893525672596</v>
+        <v>0.00040415280770319</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E209">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F209">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>471</v>
@@ -13844,25 +13844,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0004021893525672596</v>
+        <v>0.0003891080336914086</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E210">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F210">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>472</v>
@@ -13894,25 +13894,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0003981639632697346</v>
+        <v>0.0003635733400957586</v>
       </c>
       <c r="C211">
         <v>2</v>
       </c>
       <c r="D211">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E211">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F211">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>473</v>
@@ -13944,25 +13944,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.000383342126744408</v>
+        <v>0.000362999688474978</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F212">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>474</v>
@@ -13994,25 +13994,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0003581858130701284</v>
+        <v>0.000362999688474978</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>475</v>
@@ -14044,7 +14044,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0003576206619725419</v>
+        <v>0.000362999688474978</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14062,7 +14062,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>476</v>
@@ -14094,7 +14094,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003576206619725419</v>
+        <v>0.000362999688474978</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14112,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>477</v>
@@ -14144,7 +14144,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003576206619725419</v>
+        <v>0.000362999688474978</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>478</v>
@@ -14194,7 +14194,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0003576206619725419</v>
+        <v>0.000362999688474978</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14212,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>479</v>
@@ -14244,25 +14244,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0003576206619725419</v>
+        <v>0.000320618066950592</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E218">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F218">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>480</v>
@@ -14294,25 +14294,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0003576206619725419</v>
+        <v>0.000312915052107366</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F219">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>481</v>
@@ -14344,25 +14344,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0003158670626548792</v>
+        <v>0.000312915052107366</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E220">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F220">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>482</v>
@@ -14394,7 +14394,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0003082781931465001</v>
+        <v>0.000312915052107366</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14412,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>483</v>
@@ -14444,7 +14444,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003082781931465001</v>
+        <v>0.000312915052107366</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14462,7 +14462,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>484</v>
@@ -14494,7 +14494,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003082781931465001</v>
+        <v>0.000312915052107366</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14512,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>485</v>
@@ -14544,7 +14544,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003082781931465001</v>
+        <v>0.000312915052107366</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14562,7 +14562,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>486</v>
@@ -14594,25 +14594,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0003082781931465001</v>
+        <v>0.0002570851742403538</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F225">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>487</v>
@@ -14644,25 +14644,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0003082781931465001</v>
+        <v>0.0002570851742403538</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>488</v>
@@ -14694,7 +14694,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002532756173467049</v>
+        <v>0.0002570851742403538</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14712,7 +14712,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>489</v>
@@ -14744,7 +14744,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002532756173467049</v>
+        <v>0.0002570851742403538</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14762,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>490</v>
@@ -14794,7 +14794,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0002532756173467049</v>
+        <v>0.0002570851742403538</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>491</v>
@@ -14844,7 +14844,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0002532756173467049</v>
+        <v>0.0002570851742403538</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14862,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>492</v>
@@ -14894,25 +14894,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0002532756173467049</v>
+        <v>0.0002270753662608139</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F231">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>493</v>
@@ -14944,25 +14944,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0002532756173467049</v>
+        <v>0.0002270753662608139</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E232">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F232">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>494</v>
@@ -14994,7 +14994,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002237105027307685</v>
+        <v>0.0002270753662608139</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -15012,7 +15012,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>495</v>
@@ -15044,25 +15044,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002237105027307685</v>
+        <v>0.0001945540168457043</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>496</v>
@@ -15094,25 +15094,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0002237105027307685</v>
+        <v>0.0001945540168457043</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E235">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F235">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>497</v>
@@ -15144,7 +15144,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.000191671063372204</v>
+        <v>0.0001945540168457043</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>498</v>
@@ -15194,7 +15194,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.000191671063372204</v>
+        <v>0.0001945540168457043</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15212,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>499</v>
@@ -15244,7 +15244,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.000191671063372204</v>
+        <v>0.0001945540168457043</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15262,7 +15262,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>500</v>
@@ -15294,7 +15294,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.000191671063372204</v>
+        <v>0.0001945540168457043</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15312,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>501</v>
@@ -15344,7 +15344,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.000191671063372204</v>
+        <v>0.0001945540168457043</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15362,7 +15362,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>502</v>
@@ -15394,7 +15394,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.000191671063372204</v>
+        <v>0.0001945540168457043</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15412,7 +15412,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>503</v>
@@ -15444,25 +15444,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.000191671063372204</v>
+        <v>0.0001765549167927833</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F242">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>504</v>
@@ -15494,25 +15494,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.000191671063372204</v>
+        <v>0.0001248431789160043</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E243">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F243">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>505</v>
@@ -15544,13 +15544,13 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001739386787994297</v>
+        <v>0.0001248431789160043</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E244">
         <v>0.75</v>
@@ -15562,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>506</v>
@@ -15594,7 +15594,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.000122993219289706</v>
+        <v>0.0001248431789160043</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15612,7 +15612,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>507</v>
@@ -15644,7 +15644,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.000122993219289706</v>
+        <v>0.0001248431789160043</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>508</v>
@@ -15694,7 +15694,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.000122993219289706</v>
+        <v>0.0001248431789160043</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15712,7 +15712,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>509</v>
@@ -15744,7 +15744,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.000122993219289706</v>
+        <v>0.0001248431789160043</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15762,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>510</v>
@@ -15794,7 +15794,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.000122993219289706</v>
+        <v>0.0001248431789160043</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15812,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>511</v>
@@ -15844,7 +15844,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.000122993219289706</v>
+        <v>0.0001248431789160043</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15862,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>512</v>
@@ -15894,25 +15894,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.000122993219289706</v>
+        <v>7.186272760754534E-05</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E251">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F251">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>513</v>
@@ -15944,25 +15944,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.000122993219289706</v>
+        <v>7.186272760754534E-05</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F252">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>514</v>
@@ -15994,13 +15994,13 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>7.079784648337055E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E253">
         <v>0.67</v>
@@ -16012,7 +16012,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>515</v>
@@ -16044,13 +16044,13 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>7.079784648337055E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E254">
         <v>0.67</v>
@@ -16062,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>516</v>
@@ -16094,7 +16094,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16112,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>517</v>
@@ -16144,7 +16144,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>518</v>
@@ -16194,7 +16194,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16212,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>519</v>
@@ -16244,7 +16244,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16262,7 +16262,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>520</v>
@@ -16294,7 +16294,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16312,7 +16312,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>521</v>
@@ -16344,7 +16344,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16362,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>522</v>
@@ -16394,7 +16394,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16412,7 +16412,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>523</v>
@@ -16444,7 +16444,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16462,7 +16462,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>524</v>
@@ -16494,7 +16494,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16512,7 +16512,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>525</v>
@@ -16544,7 +16544,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16562,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>526</v>
@@ -16594,7 +16594,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>527</v>
@@ -16644,7 +16644,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16662,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>528</v>
@@ -16694,7 +16694,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16712,7 +16712,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>529</v>
@@ -16744,7 +16744,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>5.006163734179547E-05</v>
+        <v>5.081462200585702E-05</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16762,7 +16762,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>530</v>
@@ -16794,25 +16794,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>5.006163734179547E-05</v>
+        <v>2.483223249794288E-05</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E269">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F269">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>531</v>
@@ -16844,25 +16844,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>5.006163734179547E-05</v>
+        <v>2.483223249794288E-05</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E270">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F270">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>532</v>
@@ -16894,25 +16894,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>2.446426183305814E-05</v>
+        <v>0</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E271">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F271">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>533</v>
@@ -16944,28 +16944,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>2.446426183305814E-05</v>
+        <v>0</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E272">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F272">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K272">
         <v>0.0009138005813969008</v>
@@ -17012,7 +17012,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>534</v>
@@ -17097,10 +17097,10 @@
         <v>0</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E275">
         <v>0.5</v>
@@ -17112,7 +17112,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>536</v>
@@ -17162,7 +17162,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>537</v>
@@ -17197,10 +17197,10 @@
         <v>0</v>
       </c>
       <c r="C277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E277">
         <v>0.5</v>
@@ -17212,7 +17212,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>538</v>
@@ -17262,7 +17262,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>539</v>
@@ -17312,7 +17312,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>540</v>
@@ -17362,7 +17362,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>541</v>
@@ -17412,7 +17412,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>542</v>
@@ -17462,7 +17462,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>543</v>
@@ -17512,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>544</v>
@@ -17562,7 +17562,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>545</v>
@@ -17612,7 +17612,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>546</v>
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>547</v>
@@ -17712,7 +17712,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>548</v>
@@ -17762,7 +17762,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>549</v>
@@ -17812,7 +17812,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>550</v>
@@ -17847,10 +17847,10 @@
         <v>0</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D290">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E290">
         <v>0.5</v>
@@ -17862,7 +17862,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>551</v>
@@ -17912,7 +17912,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>552</v>
@@ -17940,30 +17940,6 @@
       </c>
     </row>
     <row r="292" spans="1:17">
-      <c r="A292" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B292">
-        <v>0</v>
-      </c>
-      <c r="C292">
-        <v>3</v>
-      </c>
-      <c r="D292">
-        <v>6</v>
-      </c>
-      <c r="E292">
-        <v>0.5</v>
-      </c>
-      <c r="F292">
-        <v>0.5</v>
-      </c>
-      <c r="G292" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292">
-        <v>95</v>
-      </c>
       <c r="J292" s="1" t="s">
         <v>553</v>
       </c>
@@ -17990,30 +17966,6 @@
       </c>
     </row>
     <row r="293" spans="1:17">
-      <c r="A293" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B293">
-        <v>0</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-      <c r="D293">
-        <v>2</v>
-      </c>
-      <c r="E293">
-        <v>0.5</v>
-      </c>
-      <c r="F293">
-        <v>0.5</v>
-      </c>
-      <c r="G293" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293">
-        <v>7</v>
-      </c>
       <c r="J293" s="1" t="s">
         <v>554</v>
       </c>
@@ -20823,7 +20775,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K401">
         <v>0.0007747831154495084</v>
@@ -20849,7 +20801,7 @@
     </row>
     <row r="402" spans="10:17">
       <c r="J402" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K402">
         <v>0.0007319415577371791</v>
@@ -20875,7 +20827,7 @@
     </row>
     <row r="403" spans="10:17">
       <c r="J403" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K403">
         <v>0.0007319415577371791</v>
@@ -20901,7 +20853,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K404">
         <v>0.0007260482096567427</v>
@@ -20927,7 +20879,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K405">
         <v>0.0007044825396336264</v>
@@ -20953,7 +20905,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K406">
         <v>0.0006940728949292197</v>
@@ -20979,7 +20931,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K407">
         <v>0.0006893141161885554</v>
@@ -21005,7 +20957,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K408">
         <v>0.0006893141161885554</v>
@@ -21031,7 +20983,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K409">
         <v>0.0006461545877579582</v>
@@ -21057,7 +21009,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K410">
         <v>0.0006024523984034688</v>
@@ -30365,7 +30317,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K768">
         <v>0.0005642805315886322</v>
@@ -30391,7 +30343,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K769">
         <v>0.0005581998288292803</v>
@@ -30417,7 +30369,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K770">
         <v>0.0005581998288292803</v>
@@ -30443,7 +30395,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K771">
         <v>0.0005313867401885749</v>
@@ -30469,7 +30421,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K772">
         <v>0.0005133936125166342</v>
@@ -30495,7 +30447,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K773">
         <v>0.0005133936125166342</v>
@@ -30521,7 +30473,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K774">
         <v>0.0005133936125166342</v>
@@ -30547,7 +30499,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K775">
         <v>0.0004983329704164659</v>
@@ -30573,7 +30525,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K776">
         <v>0.0004680373334691235</v>
@@ -30599,7 +30551,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K777">
         <v>0.0004680373334691235</v>
@@ -30625,7 +30577,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K778">
         <v>0.0004651337201479483</v>
@@ -30651,7 +30603,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K779">
         <v>0.0004318078865708107</v>
@@ -30677,7 +30629,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K780">
         <v>0.0004221450845355577</v>
@@ -30703,7 +30655,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K781">
         <v>0.0003757471674199551</v>
@@ -30729,7 +30681,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K782">
         <v>0.0003757471674199551</v>
@@ -30755,7 +30707,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K783">
         <v>0.0003288992076751402</v>
@@ -30781,7 +30733,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K784">
         <v>0.0002978534199541323</v>
@@ -30807,7 +30759,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K785">
         <v>0.0002967271023906251</v>
@@ -30833,7 +30785,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K786">
         <v>0.0002816972062080571</v>
@@ -30859,7 +30811,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K787">
         <v>0.0002816972062080571</v>
@@ -30885,7 +30837,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K788">
         <v>0.0002816972062080571</v>
@@ -30911,7 +30863,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K789">
         <v>0.0002644480720519376</v>
@@ -30937,7 +30889,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K790">
         <v>0.0002343034050083845</v>
@@ -30963,7 +30915,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K791">
         <v>0.0002343034050083845</v>
@@ -30989,7 +30941,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K792">
         <v>0.0002343034050083845</v>
@@ -31015,7 +30967,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K793">
         <v>0.0002343034050083845</v>
@@ -31041,7 +30993,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K794">
         <v>0.0002343034050083845</v>
@@ -31067,7 +31019,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K795">
         <v>0.0002343034050083845</v>
@@ -31093,7 +31045,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K796">
         <v>0.0002312332443618533</v>
@@ -31119,7 +31071,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K797">
         <v>0.0002128212892590453</v>
@@ -31145,7 +31097,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K798">
         <v>0.0001983354563807941</v>
@@ -31171,7 +31123,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K799">
         <v>0.0001898556477442202</v>
@@ -31197,7 +31149,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K800">
         <v>0.0001869930250196337</v>
@@ -31223,7 +31175,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K801">
         <v>0.0001869930250196337</v>
@@ -31249,7 +31201,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K802">
         <v>0.0001869930250196337</v>
@@ -31275,7 +31227,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K803">
         <v>0.0001869930250196337</v>
@@ -31301,7 +31253,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K804">
         <v>0.0001869930250196337</v>
@@ -31327,7 +31279,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K805">
         <v>0.0001869930250196337</v>
@@ -31353,7 +31305,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K806">
         <v>0.0001659271966955128</v>
@@ -31379,7 +31331,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K807">
         <v>0.0001402443461565882</v>
@@ -31405,7 +31357,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K808">
         <v>0.0001402443461565882</v>
@@ -31431,7 +31383,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K809">
         <v>0.0001402443461565882</v>
@@ -31457,7 +31409,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K810">
         <v>0.0001402443461565882</v>
@@ -31483,7 +31435,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K811">
         <v>0.0001402443461565882</v>
@@ -31509,7 +31461,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K812">
         <v>0.0001402443461565882</v>
@@ -31535,7 +31487,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K813">
         <v>0.0001036399925782878</v>
@@ -31561,7 +31513,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K814">
         <v>0.0001036399925782878</v>
@@ -31587,7 +31539,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K815">
         <v>0.0001036399925782878</v>
@@ -31613,7 +31565,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K816">
         <v>9.492782387211012E-05</v>
@@ -31639,7 +31591,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K817">
         <v>9.492782387211012E-05</v>
@@ -31665,7 +31617,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K818">
         <v>9.492782387211012E-05</v>
@@ -31691,7 +31643,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K819">
         <v>9.492782387211012E-05</v>
@@ -31717,7 +31669,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K820">
         <v>9.492782387211012E-05</v>
@@ -31743,7 +31695,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K821">
         <v>9.492782387211012E-05</v>
@@ -31769,7 +31721,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K822">
         <v>9.492782387211012E-05</v>
@@ -31795,7 +31747,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K823">
         <v>9.492782387211012E-05</v>
@@ -31821,7 +31773,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K824">
         <v>7.460428484137266E-05</v>
@@ -31847,7 +31799,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K825">
         <v>5.275319571690737E-05</v>
@@ -31873,7 +31825,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K826">
         <v>5.275319571690737E-05</v>
@@ -31899,7 +31851,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K827">
         <v>5.275319571690737E-05</v>
@@ -31925,7 +31877,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K828">
         <v>5.275319571690737E-05</v>
@@ -31951,7 +31903,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K829">
         <v>5.275319571690737E-05</v>
@@ -31977,7 +31929,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K830">
         <v>5.275319571690737E-05</v>
@@ -32003,7 +31955,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K831">
         <v>5.275319571690737E-05</v>
@@ -32029,7 +31981,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K832">
         <v>5.275319571690737E-05</v>
@@ -32055,7 +32007,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K833">
         <v>2.47937388603262E-05</v>
@@ -32081,7 +32033,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K834">
         <v>2.47937388603262E-05</v>
@@ -32107,7 +32059,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K835">
         <v>1.753182087910517E-05</v>
@@ -32133,7 +32085,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K836">
         <v>1.753182087910517E-05</v>
@@ -32159,7 +32111,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K837">
         <v>1.753182087910517E-05</v>
@@ -32185,7 +32137,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K838">
         <v>1.753182087910517E-05</v>
@@ -32211,7 +32163,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K839">
         <v>1.753182087910517E-05</v>
@@ -32237,7 +32189,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K840">
         <v>1.753182087910517E-05</v>
@@ -32263,7 +32215,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K841">
         <v>1.753182087910517E-05</v>
@@ -32289,7 +32241,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K842">
         <v>1.753182087910517E-05</v>
@@ -32315,7 +32267,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K843">
         <v>1.753182087910517E-05</v>
@@ -32341,7 +32293,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K844">
         <v>1.753182087910517E-05</v>
@@ -32367,7 +32319,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K845">
         <v>1.753182087910517E-05</v>
@@ -32393,7 +32345,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K846">
         <v>1.753182087910517E-05</v>
@@ -32419,7 +32371,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K847">
         <v>1.753182087910517E-05</v>
@@ -32445,7 +32397,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K848">
         <v>1.753182087910517E-05</v>
@@ -32471,7 +32423,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K849">
         <v>1.753182087910517E-05</v>
@@ -32497,7 +32449,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K850">
         <v>1.753182087910517E-05</v>
@@ -32523,7 +32475,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K851">
         <v>7.419672274486742E-06</v>
@@ -32549,7 +32501,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K852">
         <v>7.419672274486742E-06</v>
@@ -32575,7 +32527,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K853">
         <v>0</v>
@@ -32601,7 +32553,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K854">
         <v>0</v>
@@ -32627,7 +32579,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K855">
         <v>0</v>
@@ -32653,7 +32605,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K856">
         <v>0</v>
@@ -32679,7 +32631,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K857">
         <v>0</v>
@@ -32705,7 +32657,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K858">
         <v>0</v>
@@ -32731,7 +32683,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K859">
         <v>0</v>
@@ -32757,7 +32709,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K860">
         <v>0</v>
@@ -32783,7 +32735,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K861">
         <v>0</v>
@@ -32809,7 +32761,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K862">
         <v>0</v>
@@ -32835,7 +32787,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K863">
         <v>0</v>
@@ -32861,7 +32813,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K864">
         <v>0</v>
@@ -32887,7 +32839,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K865">
         <v>0</v>
@@ -32913,7 +32865,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K866">
         <v>0</v>
@@ -32939,7 +32891,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K867">
         <v>0</v>
@@ -32965,7 +32917,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K868">
         <v>0</v>
@@ -32991,7 +32943,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K869">
         <v>0</v>
@@ -33017,7 +32969,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K870">
         <v>0</v>
@@ -33043,7 +32995,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K871">
         <v>0</v>
@@ -33069,7 +33021,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K872">
         <v>0</v>
@@ -33095,7 +33047,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K873">
         <v>0</v>
